--- a/BackTest/2020-01-14 BackTest ABT.xlsx
+++ b/BackTest/2020-01-14 BackTest ABT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1804,7 +1804,7 @@
         <v>342548.4332006023</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>382553.2436006023</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>369366.1460006023</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>376308.8908006023</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>368038.5301006023</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>347614.0377006023</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>328363.3012743229</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>371002.235474323</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>371002.235474323</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>371002.235474323</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>371415.642474323</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>371707.8288743231</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>370039.541874323</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>369166.541874323</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>370206.541874323</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>371697.969474323</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>340348.5138743231</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>331497.5395743231</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>333564.9841047325</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>343324.8617820918</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>379119.5092046474</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>403064.4993959807</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>424954.5513923382</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>491550.7100303934</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>500672.4703303934</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>527212.9740303934</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>508044.8118303934</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>502189.6438303934</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>474896.8329303934</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>491026.9727302248</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>490986.3749648617</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>483195.1050648617</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>481632.3125648616</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>480045.2294512585</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>486987.9990512585</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>486987.9990512585</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>511715.4123007092</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>506683.5449007092</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>480983.8507007092</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>486758.4200007091</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>484244.1901007092</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>460131.6377007092</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>472076.8874007092</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>483262.3911007092</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>459063.4429007092</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>459691.0626007091</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>460516.8215007092</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>462330.7120007091</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>462241.7120007091</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>460997.3720007091</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>466100.0374007091</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>463063.9660007091</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>463063.9660007091</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>463501.8680007091</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>463137.4840007091</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>465983.6652007091</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>465983.6652007091</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>465983.6652007091</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>465990.6652007091</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>466006.1652007091</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -20911,10 +20911,14 @@
         <v>154805.3532845291</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>142</v>
+      </c>
+      <c r="J622" t="n">
+        <v>142</v>
+      </c>
       <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
@@ -20947,8 +20951,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>142</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -20977,15 +20987,19 @@
         <v>156340.9093845291</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I624" t="n">
         <v>143</v>
       </c>
       <c r="J624" t="n">
-        <v>143</v>
-      </c>
-      <c r="K624" t="inlineStr"/>
+        <v>142</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21014,13 +21028,13 @@
         <v>137840.3493845291</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I625" t="n">
         <v>143</v>
       </c>
       <c r="J625" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K625" t="inlineStr">
         <is>
@@ -21055,13 +21069,13 @@
         <v>137848.3493845291</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I626" t="n">
         <v>142.8</v>
       </c>
       <c r="J626" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K626" t="inlineStr">
         <is>
@@ -21100,7 +21114,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K627" t="inlineStr">
         <is>
@@ -21139,7 +21153,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K628" t="inlineStr">
         <is>
@@ -21178,7 +21192,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K629" t="inlineStr">
         <is>
@@ -21217,7 +21231,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K630" t="inlineStr">
         <is>
@@ -21256,7 +21270,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K631" t="inlineStr">
         <is>
@@ -21295,7 +21309,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K632" t="inlineStr">
         <is>
@@ -21330,11 +21344,13 @@
         <v>113928.4949845291</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>144.9</v>
+      </c>
       <c r="J633" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K633" t="inlineStr">
         <is>
@@ -21369,11 +21385,13 @@
         <v>106165.5237845291</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>143.5</v>
+      </c>
       <c r="J634" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K634" t="inlineStr">
         <is>
@@ -21408,11 +21426,13 @@
         <v>122275.7415845291</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>139</v>
+      </c>
       <c r="J635" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K635" t="inlineStr">
         <is>
@@ -21447,11 +21467,13 @@
         <v>114306.8206845291</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>143.7</v>
+      </c>
       <c r="J636" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K636" t="inlineStr">
         <is>
@@ -21486,13 +21508,13 @@
         <v>114306.8206845291</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I637" t="n">
         <v>143.4</v>
       </c>
       <c r="J637" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K637" t="inlineStr">
         <is>
@@ -21527,11 +21549,13 @@
         <v>114306.8206845291</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>143.4</v>
+      </c>
       <c r="J638" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K638" t="inlineStr">
         <is>
@@ -21566,11 +21590,13 @@
         <v>107784.9901845291</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>143.4</v>
+      </c>
       <c r="J639" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K639" t="inlineStr">
         <is>
@@ -21605,11 +21631,13 @@
         <v>109432.9901845291</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>140</v>
+      </c>
       <c r="J640" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K640" t="inlineStr">
         <is>
@@ -21644,13 +21672,13 @@
         <v>109432.9901845291</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I641" t="n">
         <v>142.9</v>
       </c>
       <c r="J641" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K641" t="inlineStr">
         <is>
@@ -21685,13 +21713,13 @@
         <v>115202.4326845291</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I642" t="n">
         <v>142.9</v>
       </c>
       <c r="J642" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K642" t="inlineStr">
         <is>
@@ -21726,13 +21754,13 @@
         <v>115022.4326845291</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I643" t="n">
         <v>149</v>
       </c>
       <c r="J643" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K643" t="inlineStr">
         <is>
@@ -21767,13 +21795,13 @@
         <v>116896.4326845291</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I644" t="n">
         <v>144.1</v>
       </c>
       <c r="J644" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K644" t="inlineStr">
         <is>
@@ -21808,11 +21836,13 @@
         <v>114853.2905845291</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>145</v>
+      </c>
       <c r="J645" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K645" t="inlineStr">
         <is>
@@ -21847,11 +21877,13 @@
         <v>114288.5802845291</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>143.8</v>
+      </c>
       <c r="J646" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K646" t="inlineStr">
         <is>
@@ -21886,11 +21918,13 @@
         <v>113132.4702845291</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
+        <v>142</v>
+      </c>
       <c r="J647" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K647" t="inlineStr">
         <is>
@@ -21925,11 +21959,13 @@
         <v>107026.8361845291</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>141.8</v>
+      </c>
       <c r="J648" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K648" t="inlineStr">
         <is>
@@ -21964,11 +22000,13 @@
         <v>105529.9040845291</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>141.1</v>
+      </c>
       <c r="J649" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K649" t="inlineStr">
         <is>
@@ -22003,13 +22041,13 @@
         <v>105549.9040845291</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I650" t="n">
         <v>140.1</v>
       </c>
       <c r="J650" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K650" t="inlineStr">
         <is>
@@ -22044,13 +22082,13 @@
         <v>104045.9040845291</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I651" t="n">
         <v>142.4</v>
       </c>
       <c r="J651" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K651" t="inlineStr">
         <is>
@@ -22085,13 +22123,13 @@
         <v>102577.8489845291</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I652" t="n">
         <v>141.5</v>
       </c>
       <c r="J652" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K652" t="inlineStr">
         <is>
@@ -22126,13 +22164,13 @@
         <v>89530.3706845291</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I653" t="n">
         <v>141.2</v>
       </c>
       <c r="J653" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K653" t="inlineStr">
         <is>
@@ -22167,13 +22205,13 @@
         <v>94800.4076845291</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I654" t="n">
         <v>138</v>
       </c>
       <c r="J654" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K654" t="inlineStr">
         <is>
@@ -22208,13 +22246,13 @@
         <v>95394.1511845291</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I655" t="n">
         <v>139.1</v>
       </c>
       <c r="J655" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K655" t="inlineStr">
         <is>
@@ -22249,13 +22287,13 @@
         <v>95379.95838452909</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I656" t="n">
         <v>143.7</v>
       </c>
       <c r="J656" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K656" t="inlineStr">
         <is>
@@ -22290,13 +22328,13 @@
         <v>95379.95838452909</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I657" t="n">
         <v>139.4</v>
       </c>
       <c r="J657" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K657" t="inlineStr">
         <is>
@@ -22331,13 +22369,13 @@
         <v>108032.8105845291</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I658" t="n">
         <v>139.4</v>
       </c>
       <c r="J658" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K658" t="inlineStr">
         <is>
@@ -22372,13 +22410,13 @@
         <v>102003.8967845291</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I659" t="n">
         <v>145.6</v>
       </c>
       <c r="J659" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K659" t="inlineStr">
         <is>
@@ -22413,13 +22451,13 @@
         <v>103753.8967845291</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I660" t="n">
         <v>143</v>
       </c>
       <c r="J660" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K660" t="inlineStr">
         <is>
@@ -22454,13 +22492,13 @@
         <v>103753.8967845291</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I661" t="n">
         <v>143.8</v>
       </c>
       <c r="J661" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K661" t="inlineStr">
         <is>
@@ -22495,11 +22533,13 @@
         <v>135270.3746845291</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>143.8</v>
+      </c>
       <c r="J662" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K662" t="inlineStr">
         <is>
@@ -22534,11 +22574,13 @@
         <v>122521.7238845291</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>146.5</v>
+      </c>
       <c r="J663" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K663" t="inlineStr">
         <is>
@@ -22573,13 +22615,13 @@
         <v>119107.3344913784</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I664" t="n">
         <v>146.4</v>
       </c>
       <c r="J664" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K664" t="inlineStr">
         <is>
@@ -22614,13 +22656,13 @@
         <v>131322.3481913784</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I665" t="n">
         <v>146</v>
       </c>
       <c r="J665" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K665" t="inlineStr">
         <is>
@@ -22655,13 +22697,13 @@
         <v>135693.0653982277</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I666" t="n">
         <v>146.4</v>
       </c>
       <c r="J666" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K666" t="inlineStr">
         <is>
@@ -22696,13 +22738,13 @@
         <v>134142.0521982277</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I667" t="n">
         <v>148.9</v>
       </c>
       <c r="J667" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K667" t="inlineStr">
         <is>
@@ -22737,11 +22779,13 @@
         <v>132499.2725982277</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>146</v>
+      </c>
       <c r="J668" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K668" t="inlineStr">
         <is>
@@ -22776,11 +22820,13 @@
         <v>126731.1860982277</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I669" t="n">
+        <v>145</v>
+      </c>
       <c r="J669" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K669" t="inlineStr">
         <is>
@@ -22815,11 +22861,13 @@
         <v>127546.2545982277</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I670" t="n">
+        <v>143.9</v>
+      </c>
       <c r="J670" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K670" t="inlineStr">
         <is>
@@ -22854,11 +22902,13 @@
         <v>116739.7377982277</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I671" t="n">
+        <v>144.2</v>
+      </c>
       <c r="J671" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K671" t="inlineStr">
         <is>
@@ -22893,11 +22943,13 @@
         <v>117511.7162982277</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>143.9</v>
+      </c>
       <c r="J672" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K672" t="inlineStr">
         <is>
@@ -22932,11 +22984,13 @@
         <v>121891.4221982277</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>144</v>
+      </c>
       <c r="J673" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K673" t="inlineStr">
         <is>
@@ -22971,11 +23025,13 @@
         <v>121449.6421982277</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>145.3</v>
+      </c>
       <c r="J674" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K674" t="inlineStr">
         <is>
@@ -23010,11 +23066,13 @@
         <v>122699.6421982277</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>145.2</v>
+      </c>
       <c r="J675" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K675" t="inlineStr">
         <is>
@@ -23053,7 +23111,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K676" t="inlineStr">
         <is>
@@ -23092,7 +23150,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K677" t="inlineStr">
         <is>
@@ -23131,7 +23189,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K678" t="inlineStr">
         <is>
@@ -23170,7 +23228,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K679" t="inlineStr">
         <is>
@@ -23209,7 +23267,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K680" t="inlineStr">
         <is>
@@ -23248,7 +23306,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K681" t="inlineStr">
         <is>
@@ -23287,7 +23345,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K682" t="inlineStr">
         <is>
@@ -23326,7 +23384,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K683" t="inlineStr">
         <is>
@@ -23365,7 +23423,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K684" t="inlineStr">
         <is>
@@ -23404,7 +23462,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K685" t="inlineStr">
         <is>
@@ -23443,7 +23501,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K686" t="inlineStr">
         <is>
@@ -23478,11 +23536,13 @@
         <v>96485.17429822771</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I687" t="n">
+        <v>141.7</v>
+      </c>
       <c r="J687" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K687" t="inlineStr">
         <is>
@@ -23517,11 +23577,13 @@
         <v>96131.6058982277</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I688" t="n">
+        <v>145</v>
+      </c>
       <c r="J688" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K688" t="inlineStr">
         <is>
@@ -23556,11 +23618,13 @@
         <v>96135.08059822771</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I689" t="n">
+        <v>143.2</v>
+      </c>
       <c r="J689" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K689" t="inlineStr">
         <is>
@@ -23595,11 +23659,13 @@
         <v>92670.95019822771</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I690" t="n">
+        <v>143.9</v>
+      </c>
       <c r="J690" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K690" t="inlineStr">
         <is>
@@ -23634,11 +23700,13 @@
         <v>89828.58629822772</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I691" t="n">
+        <v>142.9</v>
+      </c>
       <c r="J691" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K691" t="inlineStr">
         <is>
@@ -23677,7 +23745,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K692" t="inlineStr">
         <is>
@@ -23712,11 +23780,13 @@
         <v>94321.40529822772</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I693" t="n">
+        <v>143.9</v>
+      </c>
       <c r="J693" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K693" t="inlineStr">
         <is>
@@ -23751,11 +23821,13 @@
         <v>94321.40529822772</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>144</v>
+      </c>
       <c r="J694" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K694" t="inlineStr">
         <is>
@@ -23790,11 +23862,13 @@
         <v>94321.40529822772</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>144</v>
+      </c>
       <c r="J695" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K695" t="inlineStr">
         <is>
@@ -23833,7 +23907,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K696" t="inlineStr">
         <is>
@@ -23868,13 +23942,13 @@
         <v>89787.64119822772</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I697" t="n">
         <v>142</v>
       </c>
       <c r="J697" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K697" t="inlineStr">
         <is>
@@ -23909,13 +23983,11 @@
         <v>89810.64119822772</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
-      </c>
-      <c r="I698" t="n">
+        <v>0</v>
+      </c>
+      <c r="I698" t="inlineStr"/>
+      <c r="J698" t="n">
         <v>142</v>
-      </c>
-      <c r="J698" t="n">
-        <v>143</v>
       </c>
       <c r="K698" t="inlineStr">
         <is>
@@ -23950,13 +24022,13 @@
         <v>89810.64119822772</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I699" t="n">
         <v>142.1</v>
       </c>
       <c r="J699" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K699" t="inlineStr">
         <is>
@@ -23991,13 +24063,13 @@
         <v>99439.79739822772</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I700" t="n">
         <v>142.1</v>
       </c>
       <c r="J700" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K700" t="inlineStr">
         <is>
@@ -24032,13 +24104,13 @@
         <v>103379.4071982277</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I701" t="n">
         <v>143</v>
       </c>
       <c r="J701" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K701" t="inlineStr">
         <is>
@@ -24073,13 +24145,11 @@
         <v>100707.2364982277</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
-      </c>
-      <c r="I702" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I702" t="inlineStr"/>
       <c r="J702" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K702" t="inlineStr">
         <is>
@@ -24114,11 +24184,13 @@
         <v>98366.93519822771</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>143.9</v>
+      </c>
       <c r="J703" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K703" t="inlineStr">
         <is>
@@ -24153,11 +24225,13 @@
         <v>96985.71689822772</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>143</v>
+      </c>
       <c r="J704" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K704" t="inlineStr">
         <is>
@@ -24192,13 +24266,13 @@
         <v>96997.71689822772</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I705" t="n">
         <v>141.2</v>
       </c>
       <c r="J705" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K705" t="inlineStr">
         <is>
@@ -24233,13 +24307,13 @@
         <v>98289.32799822772</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I706" t="n">
         <v>141.3</v>
       </c>
       <c r="J706" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K706" t="inlineStr">
         <is>
@@ -24274,13 +24348,13 @@
         <v>98992.50633156105</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I707" t="n">
         <v>141.5</v>
       </c>
       <c r="J707" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K707" t="inlineStr">
         <is>
@@ -24315,13 +24389,13 @@
         <v>98992.50633156105</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I708" t="n">
         <v>143.4</v>
       </c>
       <c r="J708" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K708" t="inlineStr">
         <is>
@@ -24356,13 +24430,13 @@
         <v>111531.9312982277</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I709" t="n">
         <v>143.4</v>
       </c>
       <c r="J709" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K709" t="inlineStr">
         <is>
@@ -24397,11 +24471,13 @@
         <v>110468.8562982277</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>145.9</v>
+      </c>
       <c r="J710" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K710" t="inlineStr">
         <is>
@@ -24414,6 +24490,6 @@
       <c r="M710" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest ABT.xlsx
+++ b/BackTest/2020-01-14 BackTest ABT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>157682.0557493827</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>141732.9509493827</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>137768.0952493827</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>143765.5408493827</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>137986.9765493827</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>137939.5999493827</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>138564.5999493827</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>138564.5999493827</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>163141.1141493827</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>163129.1141493827</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>163121.1141493827</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>163104.6015493828</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>164693.2530493828</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>164693.2530493828</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>164632.2530493828</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>167999.2185493828</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>165849.4077493827</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>167398.3882493828</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>171108.0050493827</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>169128.4651493827</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>169128.4651493827</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>178781.9104493827</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>178717.6787493827</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>178717.6787493827</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>179930.9969006022</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>179888.9969006022</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>179872.9969006022</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>191052.1535006022</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>191052.1535006022</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>191052.1535006022</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>191052.1535006022</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>191052.1535006022</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>191514.1535006022</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>244207.7590006022</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>256658.3105006022</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>245972.3658006022</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>257181.9297006023</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>387397.2338743231</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>340348.5138743231</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>331497.5395743231</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>333564.9841047325</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>361233.6247047324</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>377827.6560047324</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>366683.7017030181</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>366683.7017030181</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>343324.8617820918</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>379119.5092046474</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>403064.4993959807</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>480045.2294512585</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>486987.9990512585</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>486987.9990512585</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>480983.8507007092</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>486758.4200007091</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>484244.1901007092</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>460131.6377007092</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>472076.8874007092</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>483262.3911007092</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>459063.4429007092</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>459691.0626007091</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>460516.8215007092</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>462330.7120007091</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>462241.7120007091</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>460997.3720007091</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>466100.0374007091</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>463063.9660007091</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>463063.9660007091</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>463501.8680007091</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>463137.4840007091</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>465983.6652007091</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>465983.6652007091</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>465983.6652007091</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>465990.6652007091</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>466006.1652007091</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -20911,14 +20911,10 @@
         <v>154805.3532845291</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
-      </c>
-      <c r="I622" t="n">
-        <v>142</v>
-      </c>
-      <c r="J622" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
@@ -20948,17 +20944,15 @@
         <v>156340.9093845291</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>142.2</v>
+      </c>
       <c r="J623" t="n">
-        <v>142</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>142.2</v>
+      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -20993,7 +20987,7 @@
         <v>143</v>
       </c>
       <c r="J624" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K624" t="inlineStr">
         <is>
@@ -21028,13 +21022,11 @@
         <v>137840.3493845291</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
-      </c>
-      <c r="I625" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I625" t="inlineStr"/>
       <c r="J625" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K625" t="inlineStr">
         <is>
@@ -21069,13 +21061,11 @@
         <v>137848.3493845291</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
-      </c>
-      <c r="I626" t="n">
-        <v>142.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
       <c r="J626" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K626" t="inlineStr">
         <is>
@@ -21114,7 +21104,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K627" t="inlineStr">
         <is>
@@ -21153,7 +21143,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K628" t="inlineStr">
         <is>
@@ -21192,7 +21182,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K629" t="inlineStr">
         <is>
@@ -21231,7 +21221,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K630" t="inlineStr">
         <is>
@@ -21270,7 +21260,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K631" t="inlineStr">
         <is>
@@ -21309,7 +21299,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K632" t="inlineStr">
         <is>
@@ -21344,13 +21334,11 @@
         <v>113928.4949845291</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
-      </c>
-      <c r="I633" t="n">
-        <v>144.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
       <c r="J633" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K633" t="inlineStr">
         <is>
@@ -21385,13 +21373,11 @@
         <v>106165.5237845291</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
-      </c>
-      <c r="I634" t="n">
-        <v>143.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
       <c r="J634" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K634" t="inlineStr">
         <is>
@@ -21426,13 +21412,11 @@
         <v>122275.7415845291</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
-      </c>
-      <c r="I635" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
       <c r="J635" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K635" t="inlineStr">
         <is>
@@ -21467,13 +21451,11 @@
         <v>114306.8206845291</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
-      </c>
-      <c r="I636" t="n">
-        <v>143.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
       <c r="J636" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K636" t="inlineStr">
         <is>
@@ -21508,13 +21490,11 @@
         <v>114306.8206845291</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
-      </c>
-      <c r="I637" t="n">
-        <v>143.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
       <c r="J637" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K637" t="inlineStr">
         <is>
@@ -21549,13 +21529,11 @@
         <v>114306.8206845291</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
-      </c>
-      <c r="I638" t="n">
-        <v>143.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
       <c r="J638" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K638" t="inlineStr">
         <is>
@@ -21590,13 +21568,11 @@
         <v>107784.9901845291</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
-      </c>
-      <c r="I639" t="n">
-        <v>143.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
       <c r="J639" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K639" t="inlineStr">
         <is>
@@ -21631,13 +21607,11 @@
         <v>109432.9901845291</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
-      </c>
-      <c r="I640" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
       <c r="J640" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K640" t="inlineStr">
         <is>
@@ -21678,7 +21652,7 @@
         <v>142.9</v>
       </c>
       <c r="J641" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K641" t="inlineStr">
         <is>
@@ -21719,7 +21693,7 @@
         <v>142.9</v>
       </c>
       <c r="J642" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K642" t="inlineStr">
         <is>
@@ -21760,7 +21734,7 @@
         <v>149</v>
       </c>
       <c r="J643" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K643" t="inlineStr">
         <is>
@@ -21801,7 +21775,7 @@
         <v>144.1</v>
       </c>
       <c r="J644" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K644" t="inlineStr">
         <is>
@@ -21842,7 +21816,7 @@
         <v>145</v>
       </c>
       <c r="J645" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K645" t="inlineStr">
         <is>
@@ -21883,7 +21857,7 @@
         <v>143.8</v>
       </c>
       <c r="J646" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K646" t="inlineStr">
         <is>
@@ -21924,7 +21898,7 @@
         <v>142</v>
       </c>
       <c r="J647" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K647" t="inlineStr">
         <is>
@@ -21965,7 +21939,7 @@
         <v>141.8</v>
       </c>
       <c r="J648" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K648" t="inlineStr">
         <is>
@@ -22006,7 +21980,7 @@
         <v>141.1</v>
       </c>
       <c r="J649" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K649" t="inlineStr">
         <is>
@@ -22047,7 +22021,7 @@
         <v>140.1</v>
       </c>
       <c r="J650" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K650" t="inlineStr">
         <is>
@@ -22088,7 +22062,7 @@
         <v>142.4</v>
       </c>
       <c r="J651" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K651" t="inlineStr">
         <is>
@@ -22129,7 +22103,7 @@
         <v>141.5</v>
       </c>
       <c r="J652" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K652" t="inlineStr">
         <is>
@@ -22170,7 +22144,7 @@
         <v>141.2</v>
       </c>
       <c r="J653" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K653" t="inlineStr">
         <is>
@@ -22211,7 +22185,7 @@
         <v>138</v>
       </c>
       <c r="J654" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K654" t="inlineStr">
         <is>
@@ -22252,7 +22226,7 @@
         <v>139.1</v>
       </c>
       <c r="J655" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K655" t="inlineStr">
         <is>
@@ -22293,7 +22267,7 @@
         <v>143.7</v>
       </c>
       <c r="J656" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K656" t="inlineStr">
         <is>
@@ -22334,7 +22308,7 @@
         <v>139.4</v>
       </c>
       <c r="J657" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K657" t="inlineStr">
         <is>
@@ -22375,7 +22349,7 @@
         <v>139.4</v>
       </c>
       <c r="J658" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K658" t="inlineStr">
         <is>
@@ -22410,13 +22384,11 @@
         <v>102003.8967845291</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
-      </c>
-      <c r="I659" t="n">
-        <v>145.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
       <c r="J659" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K659" t="inlineStr">
         <is>
@@ -22451,13 +22423,11 @@
         <v>103753.8967845291</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
-      </c>
-      <c r="I660" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
       <c r="J660" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K660" t="inlineStr">
         <is>
@@ -22498,7 +22468,7 @@
         <v>143.8</v>
       </c>
       <c r="J661" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K661" t="inlineStr">
         <is>
@@ -22533,13 +22503,11 @@
         <v>135270.3746845291</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
-      </c>
-      <c r="I662" t="n">
-        <v>143.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
       <c r="J662" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K662" t="inlineStr">
         <is>
@@ -22574,13 +22542,11 @@
         <v>122521.7238845291</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
-      </c>
-      <c r="I663" t="n">
-        <v>146.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
       <c r="J663" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K663" t="inlineStr">
         <is>
@@ -22615,13 +22581,11 @@
         <v>119107.3344913784</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
-      </c>
-      <c r="I664" t="n">
-        <v>146.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
       <c r="J664" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K664" t="inlineStr">
         <is>
@@ -22656,13 +22620,11 @@
         <v>131322.3481913784</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
-      </c>
-      <c r="I665" t="n">
-        <v>146</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
       <c r="J665" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K665" t="inlineStr">
         <is>
@@ -22697,13 +22659,11 @@
         <v>135693.0653982277</v>
       </c>
       <c r="H666" t="n">
-        <v>1</v>
-      </c>
-      <c r="I666" t="n">
-        <v>146.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
       <c r="J666" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K666" t="inlineStr">
         <is>
@@ -22738,13 +22698,11 @@
         <v>134142.0521982277</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
-      </c>
-      <c r="I667" t="n">
-        <v>148.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I667" t="inlineStr"/>
       <c r="J667" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K667" t="inlineStr">
         <is>
@@ -22779,13 +22737,11 @@
         <v>132499.2725982277</v>
       </c>
       <c r="H668" t="n">
-        <v>1</v>
-      </c>
-      <c r="I668" t="n">
-        <v>146</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I668" t="inlineStr"/>
       <c r="J668" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K668" t="inlineStr">
         <is>
@@ -22820,13 +22776,11 @@
         <v>126731.1860982277</v>
       </c>
       <c r="H669" t="n">
-        <v>1</v>
-      </c>
-      <c r="I669" t="n">
-        <v>145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I669" t="inlineStr"/>
       <c r="J669" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K669" t="inlineStr">
         <is>
@@ -22861,13 +22815,11 @@
         <v>127546.2545982277</v>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
-      </c>
-      <c r="I670" t="n">
-        <v>143.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I670" t="inlineStr"/>
       <c r="J670" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K670" t="inlineStr">
         <is>
@@ -22902,13 +22854,11 @@
         <v>116739.7377982277</v>
       </c>
       <c r="H671" t="n">
-        <v>1</v>
-      </c>
-      <c r="I671" t="n">
-        <v>144.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
       <c r="J671" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K671" t="inlineStr">
         <is>
@@ -22943,13 +22893,11 @@
         <v>117511.7162982277</v>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
-      </c>
-      <c r="I672" t="n">
-        <v>143.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
       <c r="J672" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K672" t="inlineStr">
         <is>
@@ -22984,13 +22932,11 @@
         <v>121891.4221982277</v>
       </c>
       <c r="H673" t="n">
-        <v>1</v>
-      </c>
-      <c r="I673" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
       <c r="J673" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K673" t="inlineStr">
         <is>
@@ -23025,13 +22971,11 @@
         <v>121449.6421982277</v>
       </c>
       <c r="H674" t="n">
-        <v>1</v>
-      </c>
-      <c r="I674" t="n">
-        <v>145.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
       <c r="J674" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K674" t="inlineStr">
         <is>
@@ -23066,13 +23010,11 @@
         <v>122699.6421982277</v>
       </c>
       <c r="H675" t="n">
-        <v>1</v>
-      </c>
-      <c r="I675" t="n">
-        <v>145.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
       <c r="J675" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K675" t="inlineStr">
         <is>
@@ -23111,7 +23053,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K676" t="inlineStr">
         <is>
@@ -23150,7 +23092,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K677" t="inlineStr">
         <is>
@@ -23189,7 +23131,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K678" t="inlineStr">
         <is>
@@ -23228,7 +23170,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K679" t="inlineStr">
         <is>
@@ -23267,7 +23209,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K680" t="inlineStr">
         <is>
@@ -23306,7 +23248,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K681" t="inlineStr">
         <is>
@@ -23345,7 +23287,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K682" t="inlineStr">
         <is>
@@ -23384,7 +23326,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K683" t="inlineStr">
         <is>
@@ -23423,7 +23365,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K684" t="inlineStr">
         <is>
@@ -23462,7 +23404,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K685" t="inlineStr">
         <is>
@@ -23501,7 +23443,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K686" t="inlineStr">
         <is>
@@ -23536,13 +23478,11 @@
         <v>96485.17429822771</v>
       </c>
       <c r="H687" t="n">
-        <v>1</v>
-      </c>
-      <c r="I687" t="n">
-        <v>141.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I687" t="inlineStr"/>
       <c r="J687" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K687" t="inlineStr">
         <is>
@@ -23577,13 +23517,11 @@
         <v>96131.6058982277</v>
       </c>
       <c r="H688" t="n">
-        <v>1</v>
-      </c>
-      <c r="I688" t="n">
-        <v>145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I688" t="inlineStr"/>
       <c r="J688" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K688" t="inlineStr">
         <is>
@@ -23618,13 +23556,11 @@
         <v>96135.08059822771</v>
       </c>
       <c r="H689" t="n">
-        <v>1</v>
-      </c>
-      <c r="I689" t="n">
-        <v>143.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I689" t="inlineStr"/>
       <c r="J689" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K689" t="inlineStr">
         <is>
@@ -23659,13 +23595,11 @@
         <v>92670.95019822771</v>
       </c>
       <c r="H690" t="n">
-        <v>1</v>
-      </c>
-      <c r="I690" t="n">
-        <v>143.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I690" t="inlineStr"/>
       <c r="J690" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K690" t="inlineStr">
         <is>
@@ -23700,13 +23634,11 @@
         <v>89828.58629822772</v>
       </c>
       <c r="H691" t="n">
-        <v>1</v>
-      </c>
-      <c r="I691" t="n">
-        <v>142.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I691" t="inlineStr"/>
       <c r="J691" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K691" t="inlineStr">
         <is>
@@ -23745,7 +23677,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K692" t="inlineStr">
         <is>
@@ -23780,13 +23712,11 @@
         <v>94321.40529822772</v>
       </c>
       <c r="H693" t="n">
-        <v>1</v>
-      </c>
-      <c r="I693" t="n">
-        <v>143.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I693" t="inlineStr"/>
       <c r="J693" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K693" t="inlineStr">
         <is>
@@ -23821,13 +23751,11 @@
         <v>94321.40529822772</v>
       </c>
       <c r="H694" t="n">
-        <v>1</v>
-      </c>
-      <c r="I694" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I694" t="inlineStr"/>
       <c r="J694" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K694" t="inlineStr">
         <is>
@@ -23862,13 +23790,11 @@
         <v>94321.40529822772</v>
       </c>
       <c r="H695" t="n">
-        <v>1</v>
-      </c>
-      <c r="I695" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I695" t="inlineStr"/>
       <c r="J695" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K695" t="inlineStr">
         <is>
@@ -23907,7 +23833,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K696" t="inlineStr">
         <is>
@@ -23942,13 +23868,11 @@
         <v>89787.64119822772</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
-      </c>
-      <c r="I697" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I697" t="inlineStr"/>
       <c r="J697" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K697" t="inlineStr">
         <is>
@@ -23987,7 +23911,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K698" t="inlineStr">
         <is>
@@ -24028,7 +23952,7 @@
         <v>142.1</v>
       </c>
       <c r="J699" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K699" t="inlineStr">
         <is>
@@ -24069,7 +23993,7 @@
         <v>142.1</v>
       </c>
       <c r="J700" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K700" t="inlineStr">
         <is>
@@ -24110,7 +24034,7 @@
         <v>143</v>
       </c>
       <c r="J701" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K701" t="inlineStr">
         <is>
@@ -24149,7 +24073,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K702" t="inlineStr">
         <is>
@@ -24184,13 +24108,11 @@
         <v>98366.93519822771</v>
       </c>
       <c r="H703" t="n">
-        <v>1</v>
-      </c>
-      <c r="I703" t="n">
-        <v>143.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I703" t="inlineStr"/>
       <c r="J703" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K703" t="inlineStr">
         <is>
@@ -24231,7 +24153,7 @@
         <v>143</v>
       </c>
       <c r="J704" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K704" t="inlineStr">
         <is>
@@ -24272,7 +24194,7 @@
         <v>141.2</v>
       </c>
       <c r="J705" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K705" t="inlineStr">
         <is>
@@ -24313,7 +24235,7 @@
         <v>141.3</v>
       </c>
       <c r="J706" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K706" t="inlineStr">
         <is>
@@ -24354,7 +24276,7 @@
         <v>141.5</v>
       </c>
       <c r="J707" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K707" t="inlineStr">
         <is>
@@ -24395,7 +24317,7 @@
         <v>143.4</v>
       </c>
       <c r="J708" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K708" t="inlineStr">
         <is>
@@ -24436,7 +24358,7 @@
         <v>143.4</v>
       </c>
       <c r="J709" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K709" t="inlineStr">
         <is>
@@ -24471,13 +24393,11 @@
         <v>110468.8562982277</v>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
-      </c>
-      <c r="I710" t="n">
-        <v>145.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I710" t="inlineStr"/>
       <c r="J710" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="K710" t="inlineStr">
         <is>
@@ -24490,6 +24410,6 @@
       <c r="M710" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest ABT.xlsx
+++ b/BackTest/2020-01-14 BackTest ABT.xlsx
@@ -451,7 +451,7 @@
         <v>157682.0557493827</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>141732.9509493827</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>137768.0952493827</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>143765.5408493827</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>137986.9765493827</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>137939.5999493827</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>138564.5999493827</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>138564.5999493827</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>163141.1141493827</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>163129.1141493827</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>163121.1141493827</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>163104.6015493828</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>164693.2530493828</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>164693.2530493828</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>164632.2530493828</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>167999.2185493828</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>165849.4077493827</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>167398.3882493828</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>171108.0050493827</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>169128.4651493827</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>169128.4651493827</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>178781.9104493827</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>178717.6787493827</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>178717.6787493827</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>179930.9969006022</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>179888.9969006022</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>179872.9969006022</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>191052.1535006022</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>191052.1535006022</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>191052.1535006022</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>191052.1535006022</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>191052.1535006022</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>191514.1535006022</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>244207.7590006022</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>256658.3105006022</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>245972.3658006022</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>257181.9297006023</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>387397.2338743231</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>340348.5138743231</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>331497.5395743231</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>333564.9841047325</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>361233.6247047324</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>377827.6560047324</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>366683.7017030181</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>366683.7017030181</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>343324.8617820918</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>379119.5092046474</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>403064.4993959807</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>508044.8118303934</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>502189.6438303934</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>455208.9695303934</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>490986.3749648617</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>483195.1050648617</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>487029.3915648616</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>481632.3125648616</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>459430.6004648616</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>462915.6063648616</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>439212.6067648616</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>445329.4694512585</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>473837.9174512585</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>473837.9174512585</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>483431.5985512584</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>474937.1027512585</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>480045.2294512585</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>486987.9990512585</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>486987.9990512585</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>481010.6418007091</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>476050.9829007091</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>479103.3058007091</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>492145.4489007091</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>502979.6414007091</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>511120.9985007091</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>505867.7103007091</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>508914.1900007091</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>487386.9647007092</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>520738.8264007092</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>510454.4710007092</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>511715.4123007092</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -20944,14 +20944,10 @@
         <v>156340.9093845291</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
-      </c>
-      <c r="I623" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="J623" t="n">
-        <v>142.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I623" t="inlineStr"/>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
@@ -20981,19 +20977,11 @@
         <v>156340.9093845291</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
-      </c>
-      <c r="I624" t="n">
-        <v>143</v>
-      </c>
-      <c r="J624" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I624" t="inlineStr"/>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21025,1132 +21013,938 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K625" t="inlineStr">
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
+      <c r="L625" t="n">
+        <v>1</v>
+      </c>
+      <c r="M625" t="inlineStr"/>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>624</v>
+      </c>
+      <c r="B626" t="n">
+        <v>146.6</v>
+      </c>
+      <c r="C626" t="n">
+        <v>147.2</v>
+      </c>
+      <c r="D626" t="n">
+        <v>147.2</v>
+      </c>
+      <c r="E626" t="n">
+        <v>146.6</v>
+      </c>
+      <c r="F626" t="n">
+        <v>8</v>
+      </c>
+      <c r="G626" t="n">
+        <v>137848.3493845291</v>
+      </c>
+      <c r="H626" t="n">
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
+      <c r="L626" t="n">
+        <v>1</v>
+      </c>
+      <c r="M626" t="inlineStr"/>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="B627" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="C627" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="D627" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="E627" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="F627" t="n">
+        <v>4</v>
+      </c>
+      <c r="G627" t="n">
+        <v>137852.3493845291</v>
+      </c>
+      <c r="H627" t="n">
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
+      <c r="L627" t="n">
+        <v>1</v>
+      </c>
+      <c r="M627" t="inlineStr"/>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>626</v>
+      </c>
+      <c r="B628" t="n">
+        <v>147</v>
+      </c>
+      <c r="C628" t="n">
+        <v>147</v>
+      </c>
+      <c r="D628" t="n">
+        <v>147</v>
+      </c>
+      <c r="E628" t="n">
+        <v>147</v>
+      </c>
+      <c r="F628" t="n">
+        <v>4</v>
+      </c>
+      <c r="G628" t="n">
+        <v>137848.3493845291</v>
+      </c>
+      <c r="H628" t="n">
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
+      <c r="L628" t="n">
+        <v>1</v>
+      </c>
+      <c r="M628" t="inlineStr"/>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="B629" t="n">
+        <v>146</v>
+      </c>
+      <c r="C629" t="n">
+        <v>146</v>
+      </c>
+      <c r="D629" t="n">
+        <v>146</v>
+      </c>
+      <c r="E629" t="n">
+        <v>146</v>
+      </c>
+      <c r="F629" t="n">
+        <v>4</v>
+      </c>
+      <c r="G629" t="n">
+        <v>137844.3493845291</v>
+      </c>
+      <c r="H629" t="n">
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
+      <c r="L629" t="n">
+        <v>1</v>
+      </c>
+      <c r="M629" t="inlineStr"/>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>628</v>
+      </c>
+      <c r="B630" t="n">
+        <v>145</v>
+      </c>
+      <c r="C630" t="n">
+        <v>145</v>
+      </c>
+      <c r="D630" t="n">
+        <v>145</v>
+      </c>
+      <c r="E630" t="n">
+        <v>145</v>
+      </c>
+      <c r="F630" t="n">
+        <v>4</v>
+      </c>
+      <c r="G630" t="n">
+        <v>137840.3493845291</v>
+      </c>
+      <c r="H630" t="n">
+        <v>0</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
+      <c r="L630" t="n">
+        <v>1</v>
+      </c>
+      <c r="M630" t="inlineStr"/>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="B631" t="n">
+        <v>144</v>
+      </c>
+      <c r="C631" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="D631" t="n">
+        <v>145</v>
+      </c>
+      <c r="E631" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="F631" t="n">
+        <v>19547.2863</v>
+      </c>
+      <c r="G631" t="n">
+        <v>118293.0630845291</v>
+      </c>
+      <c r="H631" t="n">
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
+      <c r="L631" t="n">
+        <v>1</v>
+      </c>
+      <c r="M631" t="inlineStr"/>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="B632" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="C632" t="n">
+        <v>144.9</v>
+      </c>
+      <c r="D632" t="n">
+        <v>144.9</v>
+      </c>
+      <c r="E632" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="F632" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G632" t="n">
+        <v>119543.0630845291</v>
+      </c>
+      <c r="H632" t="n">
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
+      <c r="L632" t="n">
+        <v>1</v>
+      </c>
+      <c r="M632" t="inlineStr"/>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="B633" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="C633" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="D633" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="E633" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="F633" t="n">
+        <v>5614.5681</v>
+      </c>
+      <c r="G633" t="n">
+        <v>113928.4949845291</v>
+      </c>
+      <c r="H633" t="n">
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
+      <c r="L633" t="n">
+        <v>1</v>
+      </c>
+      <c r="M633" t="inlineStr"/>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="B634" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="C634" t="n">
+        <v>139</v>
+      </c>
+      <c r="D634" t="n">
+        <v>144.8</v>
+      </c>
+      <c r="E634" t="n">
+        <v>139</v>
+      </c>
+      <c r="F634" t="n">
+        <v>7762.9712</v>
+      </c>
+      <c r="G634" t="n">
+        <v>106165.5237845291</v>
+      </c>
+      <c r="H634" t="n">
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
+      <c r="L634" t="n">
+        <v>1</v>
+      </c>
+      <c r="M634" t="inlineStr"/>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="B635" t="n">
+        <v>139</v>
+      </c>
+      <c r="C635" t="n">
+        <v>143.7</v>
+      </c>
+      <c r="D635" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="E635" t="n">
+        <v>138.3</v>
+      </c>
+      <c r="F635" t="n">
+        <v>16110.2178</v>
+      </c>
+      <c r="G635" t="n">
+        <v>122275.7415845291</v>
+      </c>
+      <c r="H635" t="n">
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
+      <c r="L635" t="n">
+        <v>1</v>
+      </c>
+      <c r="M635" t="inlineStr"/>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="B636" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="C636" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="D636" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="E636" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="F636" t="n">
+        <v>7968.9209</v>
+      </c>
+      <c r="G636" t="n">
+        <v>114306.8206845291</v>
+      </c>
+      <c r="H636" t="n">
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
+      <c r="L636" t="n">
+        <v>1</v>
+      </c>
+      <c r="M636" t="inlineStr"/>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="B637" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="C637" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="D637" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="E637" t="n">
+        <v>143.3</v>
+      </c>
+      <c r="F637" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G637" t="n">
+        <v>114306.8206845291</v>
+      </c>
+      <c r="H637" t="n">
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
+      <c r="L637" t="n">
+        <v>1</v>
+      </c>
+      <c r="M637" t="inlineStr"/>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="B638" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="C638" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="D638" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="E638" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="F638" t="n">
+        <v>12.2431</v>
+      </c>
+      <c r="G638" t="n">
+        <v>114306.8206845291</v>
+      </c>
+      <c r="H638" t="n">
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
+      <c r="L638" t="n">
+        <v>1</v>
+      </c>
+      <c r="M638" t="inlineStr"/>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="B639" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="C639" t="n">
+        <v>140</v>
+      </c>
+      <c r="D639" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="E639" t="n">
+        <v>140</v>
+      </c>
+      <c r="F639" t="n">
+        <v>6521.8305</v>
+      </c>
+      <c r="G639" t="n">
+        <v>107784.9901845291</v>
+      </c>
+      <c r="H639" t="n">
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
+      <c r="L639" t="n">
+        <v>1</v>
+      </c>
+      <c r="M639" t="inlineStr"/>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="B640" t="n">
+        <v>141.9</v>
+      </c>
+      <c r="C640" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="D640" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="E640" t="n">
+        <v>141.9</v>
+      </c>
+      <c r="F640" t="n">
+        <v>1648</v>
+      </c>
+      <c r="G640" t="n">
+        <v>109432.9901845291</v>
+      </c>
+      <c r="H640" t="n">
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
+      <c r="L640" t="n">
+        <v>1</v>
+      </c>
+      <c r="M640" t="inlineStr"/>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="B641" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="C641" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="D641" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="E641" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="F641" t="n">
+        <v>139.75</v>
+      </c>
+      <c r="G641" t="n">
+        <v>109432.9901845291</v>
+      </c>
+      <c r="H641" t="n">
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
+      <c r="L641" t="n">
+        <v>1</v>
+      </c>
+      <c r="M641" t="inlineStr"/>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="B642" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="C642" t="n">
+        <v>149</v>
+      </c>
+      <c r="D642" t="n">
+        <v>149</v>
+      </c>
+      <c r="E642" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="F642" t="n">
+        <v>5769.4425</v>
+      </c>
+      <c r="G642" t="n">
+        <v>115202.4326845291</v>
+      </c>
+      <c r="H642" t="n">
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
+      <c r="L642" t="n">
+        <v>1</v>
+      </c>
+      <c r="M642" t="inlineStr"/>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="B643" t="n">
+        <v>144.1</v>
+      </c>
+      <c r="C643" t="n">
+        <v>144.1</v>
+      </c>
+      <c r="D643" t="n">
+        <v>144.1</v>
+      </c>
+      <c r="E643" t="n">
+        <v>144.1</v>
+      </c>
+      <c r="F643" t="n">
+        <v>180</v>
+      </c>
+      <c r="G643" t="n">
+        <v>115022.4326845291</v>
+      </c>
+      <c r="H643" t="n">
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
+      <c r="L643" t="n">
+        <v>1</v>
+      </c>
+      <c r="M643" t="inlineStr"/>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="B644" t="n">
+        <v>145</v>
+      </c>
+      <c r="C644" t="n">
+        <v>145</v>
+      </c>
+      <c r="D644" t="n">
+        <v>145</v>
+      </c>
+      <c r="E644" t="n">
+        <v>145</v>
+      </c>
+      <c r="F644" t="n">
+        <v>1874</v>
+      </c>
+      <c r="G644" t="n">
+        <v>116896.4326845291</v>
+      </c>
+      <c r="H644" t="n">
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
+      <c r="L644" t="n">
+        <v>1</v>
+      </c>
+      <c r="M644" t="inlineStr"/>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>643</v>
+      </c>
+      <c r="B645" t="n">
+        <v>143.7</v>
+      </c>
+      <c r="C645" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="D645" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="E645" t="n">
+        <v>143.7</v>
+      </c>
+      <c r="F645" t="n">
+        <v>2043.1421</v>
+      </c>
+      <c r="G645" t="n">
+        <v>114853.2905845291</v>
+      </c>
+      <c r="H645" t="n">
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
+      <c r="L645" t="n">
+        <v>1</v>
+      </c>
+      <c r="M645" t="inlineStr"/>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>644</v>
+      </c>
+      <c r="B646" t="n">
+        <v>142</v>
+      </c>
+      <c r="C646" t="n">
+        <v>142</v>
+      </c>
+      <c r="D646" t="n">
+        <v>142</v>
+      </c>
+      <c r="E646" t="n">
+        <v>142</v>
+      </c>
+      <c r="F646" t="n">
+        <v>564.7103</v>
+      </c>
+      <c r="G646" t="n">
+        <v>114288.5802845291</v>
+      </c>
+      <c r="H646" t="n">
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
+      <c r="L646" t="n">
+        <v>1</v>
+      </c>
+      <c r="M646" t="inlineStr"/>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="B647" t="n">
+        <v>141.8</v>
+      </c>
+      <c r="C647" t="n">
+        <v>141.8</v>
+      </c>
+      <c r="D647" t="n">
+        <v>141.8</v>
+      </c>
+      <c r="E647" t="n">
+        <v>141.8</v>
+      </c>
+      <c r="F647" t="n">
+        <v>1156.11</v>
+      </c>
+      <c r="G647" t="n">
+        <v>113132.4702845291</v>
+      </c>
+      <c r="H647" t="n">
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
+      <c r="L647" t="n">
+        <v>1</v>
+      </c>
+      <c r="M647" t="inlineStr"/>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>646</v>
+      </c>
+      <c r="B648" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="C648" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="D648" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="E648" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="F648" t="n">
+        <v>6105.6341</v>
+      </c>
+      <c r="G648" t="n">
+        <v>107026.8361845291</v>
+      </c>
+      <c r="H648" t="n">
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
+      <c r="L648" t="n">
+        <v>1</v>
+      </c>
+      <c r="M648" t="inlineStr"/>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>647</v>
+      </c>
+      <c r="B649" t="n">
+        <v>140.1</v>
+      </c>
+      <c r="C649" t="n">
+        <v>140.1</v>
+      </c>
+      <c r="D649" t="n">
+        <v>140.1</v>
+      </c>
+      <c r="E649" t="n">
+        <v>140.1</v>
+      </c>
+      <c r="F649" t="n">
+        <v>1496.9321</v>
+      </c>
+      <c r="G649" t="n">
+        <v>105529.9040845291</v>
+      </c>
+      <c r="H649" t="n">
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
+      <c r="L649" t="n">
+        <v>1</v>
+      </c>
+      <c r="M649" t="inlineStr"/>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>648</v>
+      </c>
+      <c r="B650" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="C650" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="D650" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="E650" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="F650" t="n">
+        <v>20</v>
+      </c>
+      <c r="G650" t="n">
+        <v>105549.9040845291</v>
+      </c>
+      <c r="H650" t="n">
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
+      <c r="L650" t="n">
+        <v>1</v>
+      </c>
+      <c r="M650" t="inlineStr"/>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="B651" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="C651" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="D651" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="E651" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="F651" t="n">
+        <v>1504</v>
+      </c>
+      <c r="G651" t="n">
+        <v>104045.9040845291</v>
+      </c>
+      <c r="H651" t="n">
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
+      <c r="L651" t="n">
+        <v>1</v>
+      </c>
+      <c r="M651" t="inlineStr"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="B652" t="n">
+        <v>141.4</v>
+      </c>
+      <c r="C652" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="D652" t="n">
+        <v>141.4</v>
+      </c>
+      <c r="E652" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="F652" t="n">
+        <v>1468.0551</v>
+      </c>
+      <c r="G652" t="n">
+        <v>102577.8489845291</v>
+      </c>
+      <c r="H652" t="n">
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
+      <c r="L652" t="n">
+        <v>1</v>
+      </c>
+      <c r="M652" t="inlineStr"/>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>651</v>
+      </c>
+      <c r="B653" t="n">
+        <v>139</v>
+      </c>
+      <c r="C653" t="n">
+        <v>138</v>
+      </c>
+      <c r="D653" t="n">
+        <v>139</v>
+      </c>
+      <c r="E653" t="n">
+        <v>138</v>
+      </c>
+      <c r="F653" t="n">
+        <v>13047.4783</v>
+      </c>
+      <c r="G653" t="n">
+        <v>89530.3706845291</v>
+      </c>
+      <c r="H653" t="n">
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L625" t="n">
-        <v>1</v>
-      </c>
-      <c r="M625" t="inlineStr"/>
-    </row>
-    <row r="626">
-      <c r="A626" s="1" t="n">
-        <v>624</v>
-      </c>
-      <c r="B626" t="n">
-        <v>146.6</v>
-      </c>
-      <c r="C626" t="n">
-        <v>147.2</v>
-      </c>
-      <c r="D626" t="n">
-        <v>147.2</v>
-      </c>
-      <c r="E626" t="n">
-        <v>146.6</v>
-      </c>
-      <c r="F626" t="n">
-        <v>8</v>
-      </c>
-      <c r="G626" t="n">
-        <v>137848.3493845291</v>
-      </c>
-      <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L626" t="n">
-        <v>1</v>
-      </c>
-      <c r="M626" t="inlineStr"/>
-    </row>
-    <row r="627">
-      <c r="A627" s="1" t="n">
-        <v>625</v>
-      </c>
-      <c r="B627" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="C627" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="D627" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="E627" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="F627" t="n">
-        <v>4</v>
-      </c>
-      <c r="G627" t="n">
-        <v>137852.3493845291</v>
-      </c>
-      <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L627" t="n">
-        <v>1</v>
-      </c>
-      <c r="M627" t="inlineStr"/>
-    </row>
-    <row r="628">
-      <c r="A628" s="1" t="n">
-        <v>626</v>
-      </c>
-      <c r="B628" t="n">
-        <v>147</v>
-      </c>
-      <c r="C628" t="n">
-        <v>147</v>
-      </c>
-      <c r="D628" t="n">
-        <v>147</v>
-      </c>
-      <c r="E628" t="n">
-        <v>147</v>
-      </c>
-      <c r="F628" t="n">
-        <v>4</v>
-      </c>
-      <c r="G628" t="n">
-        <v>137848.3493845291</v>
-      </c>
-      <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L628" t="n">
-        <v>1</v>
-      </c>
-      <c r="M628" t="inlineStr"/>
-    </row>
-    <row r="629">
-      <c r="A629" s="1" t="n">
-        <v>627</v>
-      </c>
-      <c r="B629" t="n">
-        <v>146</v>
-      </c>
-      <c r="C629" t="n">
-        <v>146</v>
-      </c>
-      <c r="D629" t="n">
-        <v>146</v>
-      </c>
-      <c r="E629" t="n">
-        <v>146</v>
-      </c>
-      <c r="F629" t="n">
-        <v>4</v>
-      </c>
-      <c r="G629" t="n">
-        <v>137844.3493845291</v>
-      </c>
-      <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L629" t="n">
-        <v>1</v>
-      </c>
-      <c r="M629" t="inlineStr"/>
-    </row>
-    <row r="630">
-      <c r="A630" s="1" t="n">
-        <v>628</v>
-      </c>
-      <c r="B630" t="n">
-        <v>145</v>
-      </c>
-      <c r="C630" t="n">
-        <v>145</v>
-      </c>
-      <c r="D630" t="n">
-        <v>145</v>
-      </c>
-      <c r="E630" t="n">
-        <v>145</v>
-      </c>
-      <c r="F630" t="n">
-        <v>4</v>
-      </c>
-      <c r="G630" t="n">
-        <v>137840.3493845291</v>
-      </c>
-      <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L630" t="n">
-        <v>1</v>
-      </c>
-      <c r="M630" t="inlineStr"/>
-    </row>
-    <row r="631">
-      <c r="A631" s="1" t="n">
-        <v>629</v>
-      </c>
-      <c r="B631" t="n">
-        <v>144</v>
-      </c>
-      <c r="C631" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="D631" t="n">
-        <v>145</v>
-      </c>
-      <c r="E631" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="F631" t="n">
-        <v>19547.2863</v>
-      </c>
-      <c r="G631" t="n">
-        <v>118293.0630845291</v>
-      </c>
-      <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L631" t="n">
-        <v>1</v>
-      </c>
-      <c r="M631" t="inlineStr"/>
-    </row>
-    <row r="632">
-      <c r="A632" s="1" t="n">
-        <v>630</v>
-      </c>
-      <c r="B632" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="C632" t="n">
-        <v>144.9</v>
-      </c>
-      <c r="D632" t="n">
-        <v>144.9</v>
-      </c>
-      <c r="E632" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="F632" t="n">
-        <v>1250</v>
-      </c>
-      <c r="G632" t="n">
-        <v>119543.0630845291</v>
-      </c>
-      <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L632" t="n">
-        <v>1</v>
-      </c>
-      <c r="M632" t="inlineStr"/>
-    </row>
-    <row r="633">
-      <c r="A633" s="1" t="n">
-        <v>631</v>
-      </c>
-      <c r="B633" t="n">
-        <v>143.5</v>
-      </c>
-      <c r="C633" t="n">
-        <v>143.5</v>
-      </c>
-      <c r="D633" t="n">
-        <v>143.5</v>
-      </c>
-      <c r="E633" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="F633" t="n">
-        <v>5614.5681</v>
-      </c>
-      <c r="G633" t="n">
-        <v>113928.4949845291</v>
-      </c>
-      <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L633" t="n">
-        <v>1</v>
-      </c>
-      <c r="M633" t="inlineStr"/>
-    </row>
-    <row r="634">
-      <c r="A634" s="1" t="n">
-        <v>632</v>
-      </c>
-      <c r="B634" t="n">
-        <v>143.5</v>
-      </c>
-      <c r="C634" t="n">
-        <v>139</v>
-      </c>
-      <c r="D634" t="n">
-        <v>144.8</v>
-      </c>
-      <c r="E634" t="n">
-        <v>139</v>
-      </c>
-      <c r="F634" t="n">
-        <v>7762.9712</v>
-      </c>
-      <c r="G634" t="n">
-        <v>106165.5237845291</v>
-      </c>
-      <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L634" t="n">
-        <v>1</v>
-      </c>
-      <c r="M634" t="inlineStr"/>
-    </row>
-    <row r="635">
-      <c r="A635" s="1" t="n">
-        <v>633</v>
-      </c>
-      <c r="B635" t="n">
-        <v>139</v>
-      </c>
-      <c r="C635" t="n">
-        <v>143.7</v>
-      </c>
-      <c r="D635" t="n">
-        <v>144.5</v>
-      </c>
-      <c r="E635" t="n">
-        <v>138.3</v>
-      </c>
-      <c r="F635" t="n">
-        <v>16110.2178</v>
-      </c>
-      <c r="G635" t="n">
-        <v>122275.7415845291</v>
-      </c>
-      <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L635" t="n">
-        <v>1</v>
-      </c>
-      <c r="M635" t="inlineStr"/>
-    </row>
-    <row r="636">
-      <c r="A636" s="1" t="n">
-        <v>634</v>
-      </c>
-      <c r="B636" t="n">
-        <v>143.5</v>
-      </c>
-      <c r="C636" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="D636" t="n">
-        <v>143.5</v>
-      </c>
-      <c r="E636" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="F636" t="n">
-        <v>7968.9209</v>
-      </c>
-      <c r="G636" t="n">
-        <v>114306.8206845291</v>
-      </c>
-      <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L636" t="n">
-        <v>1</v>
-      </c>
-      <c r="M636" t="inlineStr"/>
-    </row>
-    <row r="637">
-      <c r="A637" s="1" t="n">
-        <v>635</v>
-      </c>
-      <c r="B637" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="C637" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="D637" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="E637" t="n">
-        <v>143.3</v>
-      </c>
-      <c r="F637" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G637" t="n">
-        <v>114306.8206845291</v>
-      </c>
-      <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L637" t="n">
-        <v>1</v>
-      </c>
-      <c r="M637" t="inlineStr"/>
-    </row>
-    <row r="638">
-      <c r="A638" s="1" t="n">
-        <v>636</v>
-      </c>
-      <c r="B638" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="C638" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="D638" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="E638" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="F638" t="n">
-        <v>12.2431</v>
-      </c>
-      <c r="G638" t="n">
-        <v>114306.8206845291</v>
-      </c>
-      <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L638" t="n">
-        <v>1</v>
-      </c>
-      <c r="M638" t="inlineStr"/>
-    </row>
-    <row r="639">
-      <c r="A639" s="1" t="n">
-        <v>637</v>
-      </c>
-      <c r="B639" t="n">
-        <v>142.1</v>
-      </c>
-      <c r="C639" t="n">
-        <v>140</v>
-      </c>
-      <c r="D639" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="E639" t="n">
-        <v>140</v>
-      </c>
-      <c r="F639" t="n">
-        <v>6521.8305</v>
-      </c>
-      <c r="G639" t="n">
-        <v>107784.9901845291</v>
-      </c>
-      <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L639" t="n">
-        <v>1</v>
-      </c>
-      <c r="M639" t="inlineStr"/>
-    </row>
-    <row r="640">
-      <c r="A640" s="1" t="n">
-        <v>638</v>
-      </c>
-      <c r="B640" t="n">
-        <v>141.9</v>
-      </c>
-      <c r="C640" t="n">
-        <v>142.9</v>
-      </c>
-      <c r="D640" t="n">
-        <v>142.9</v>
-      </c>
-      <c r="E640" t="n">
-        <v>141.9</v>
-      </c>
-      <c r="F640" t="n">
-        <v>1648</v>
-      </c>
-      <c r="G640" t="n">
-        <v>109432.9901845291</v>
-      </c>
-      <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L640" t="n">
-        <v>1</v>
-      </c>
-      <c r="M640" t="inlineStr"/>
-    </row>
-    <row r="641">
-      <c r="A641" s="1" t="n">
-        <v>639</v>
-      </c>
-      <c r="B641" t="n">
-        <v>142.9</v>
-      </c>
-      <c r="C641" t="n">
-        <v>142.9</v>
-      </c>
-      <c r="D641" t="n">
-        <v>142.9</v>
-      </c>
-      <c r="E641" t="n">
-        <v>142.9</v>
-      </c>
-      <c r="F641" t="n">
-        <v>139.75</v>
-      </c>
-      <c r="G641" t="n">
-        <v>109432.9901845291</v>
-      </c>
-      <c r="H641" t="n">
-        <v>1</v>
-      </c>
-      <c r="I641" t="n">
-        <v>142.9</v>
-      </c>
-      <c r="J641" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L641" t="n">
-        <v>1</v>
-      </c>
-      <c r="M641" t="inlineStr"/>
-    </row>
-    <row r="642">
-      <c r="A642" s="1" t="n">
-        <v>640</v>
-      </c>
-      <c r="B642" t="n">
-        <v>142.9</v>
-      </c>
-      <c r="C642" t="n">
-        <v>149</v>
-      </c>
-      <c r="D642" t="n">
-        <v>149</v>
-      </c>
-      <c r="E642" t="n">
-        <v>142.9</v>
-      </c>
-      <c r="F642" t="n">
-        <v>5769.4425</v>
-      </c>
-      <c r="G642" t="n">
-        <v>115202.4326845291</v>
-      </c>
-      <c r="H642" t="n">
-        <v>1</v>
-      </c>
-      <c r="I642" t="n">
-        <v>142.9</v>
-      </c>
-      <c r="J642" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L642" t="n">
-        <v>1</v>
-      </c>
-      <c r="M642" t="inlineStr"/>
-    </row>
-    <row r="643">
-      <c r="A643" s="1" t="n">
-        <v>641</v>
-      </c>
-      <c r="B643" t="n">
-        <v>144.1</v>
-      </c>
-      <c r="C643" t="n">
-        <v>144.1</v>
-      </c>
-      <c r="D643" t="n">
-        <v>144.1</v>
-      </c>
-      <c r="E643" t="n">
-        <v>144.1</v>
-      </c>
-      <c r="F643" t="n">
-        <v>180</v>
-      </c>
-      <c r="G643" t="n">
-        <v>115022.4326845291</v>
-      </c>
-      <c r="H643" t="n">
-        <v>1</v>
-      </c>
-      <c r="I643" t="n">
-        <v>149</v>
-      </c>
-      <c r="J643" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L643" t="n">
-        <v>1</v>
-      </c>
-      <c r="M643" t="inlineStr"/>
-    </row>
-    <row r="644">
-      <c r="A644" s="1" t="n">
-        <v>642</v>
-      </c>
-      <c r="B644" t="n">
-        <v>145</v>
-      </c>
-      <c r="C644" t="n">
-        <v>145</v>
-      </c>
-      <c r="D644" t="n">
-        <v>145</v>
-      </c>
-      <c r="E644" t="n">
-        <v>145</v>
-      </c>
-      <c r="F644" t="n">
-        <v>1874</v>
-      </c>
-      <c r="G644" t="n">
-        <v>116896.4326845291</v>
-      </c>
-      <c r="H644" t="n">
-        <v>1</v>
-      </c>
-      <c r="I644" t="n">
-        <v>144.1</v>
-      </c>
-      <c r="J644" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L644" t="n">
-        <v>1</v>
-      </c>
-      <c r="M644" t="inlineStr"/>
-    </row>
-    <row r="645">
-      <c r="A645" s="1" t="n">
-        <v>643</v>
-      </c>
-      <c r="B645" t="n">
-        <v>143.7</v>
-      </c>
-      <c r="C645" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="D645" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="E645" t="n">
-        <v>143.7</v>
-      </c>
-      <c r="F645" t="n">
-        <v>2043.1421</v>
-      </c>
-      <c r="G645" t="n">
-        <v>114853.2905845291</v>
-      </c>
-      <c r="H645" t="n">
-        <v>1</v>
-      </c>
-      <c r="I645" t="n">
-        <v>145</v>
-      </c>
-      <c r="J645" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L645" t="n">
-        <v>1</v>
-      </c>
-      <c r="M645" t="inlineStr"/>
-    </row>
-    <row r="646">
-      <c r="A646" s="1" t="n">
-        <v>644</v>
-      </c>
-      <c r="B646" t="n">
-        <v>142</v>
-      </c>
-      <c r="C646" t="n">
-        <v>142</v>
-      </c>
-      <c r="D646" t="n">
-        <v>142</v>
-      </c>
-      <c r="E646" t="n">
-        <v>142</v>
-      </c>
-      <c r="F646" t="n">
-        <v>564.7103</v>
-      </c>
-      <c r="G646" t="n">
-        <v>114288.5802845291</v>
-      </c>
-      <c r="H646" t="n">
-        <v>1</v>
-      </c>
-      <c r="I646" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="J646" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L646" t="n">
-        <v>1</v>
-      </c>
-      <c r="M646" t="inlineStr"/>
-    </row>
-    <row r="647">
-      <c r="A647" s="1" t="n">
-        <v>645</v>
-      </c>
-      <c r="B647" t="n">
-        <v>141.8</v>
-      </c>
-      <c r="C647" t="n">
-        <v>141.8</v>
-      </c>
-      <c r="D647" t="n">
-        <v>141.8</v>
-      </c>
-      <c r="E647" t="n">
-        <v>141.8</v>
-      </c>
-      <c r="F647" t="n">
-        <v>1156.11</v>
-      </c>
-      <c r="G647" t="n">
-        <v>113132.4702845291</v>
-      </c>
-      <c r="H647" t="n">
-        <v>1</v>
-      </c>
-      <c r="I647" t="n">
-        <v>142</v>
-      </c>
-      <c r="J647" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L647" t="n">
-        <v>1</v>
-      </c>
-      <c r="M647" t="inlineStr"/>
-    </row>
-    <row r="648">
-      <c r="A648" s="1" t="n">
-        <v>646</v>
-      </c>
-      <c r="B648" t="n">
-        <v>141.6</v>
-      </c>
-      <c r="C648" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="D648" t="n">
-        <v>141.6</v>
-      </c>
-      <c r="E648" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="F648" t="n">
-        <v>6105.6341</v>
-      </c>
-      <c r="G648" t="n">
-        <v>107026.8361845291</v>
-      </c>
-      <c r="H648" t="n">
-        <v>1</v>
-      </c>
-      <c r="I648" t="n">
-        <v>141.8</v>
-      </c>
-      <c r="J648" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L648" t="n">
-        <v>1</v>
-      </c>
-      <c r="M648" t="inlineStr"/>
-    </row>
-    <row r="649">
-      <c r="A649" s="1" t="n">
-        <v>647</v>
-      </c>
-      <c r="B649" t="n">
-        <v>140.1</v>
-      </c>
-      <c r="C649" t="n">
-        <v>140.1</v>
-      </c>
-      <c r="D649" t="n">
-        <v>140.1</v>
-      </c>
-      <c r="E649" t="n">
-        <v>140.1</v>
-      </c>
-      <c r="F649" t="n">
-        <v>1496.9321</v>
-      </c>
-      <c r="G649" t="n">
-        <v>105529.9040845291</v>
-      </c>
-      <c r="H649" t="n">
-        <v>1</v>
-      </c>
-      <c r="I649" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="J649" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L649" t="n">
-        <v>1</v>
-      </c>
-      <c r="M649" t="inlineStr"/>
-    </row>
-    <row r="650">
-      <c r="A650" s="1" t="n">
-        <v>648</v>
-      </c>
-      <c r="B650" t="n">
-        <v>142.4</v>
-      </c>
-      <c r="C650" t="n">
-        <v>142.4</v>
-      </c>
-      <c r="D650" t="n">
-        <v>142.4</v>
-      </c>
-      <c r="E650" t="n">
-        <v>142.4</v>
-      </c>
-      <c r="F650" t="n">
-        <v>20</v>
-      </c>
-      <c r="G650" t="n">
-        <v>105549.9040845291</v>
-      </c>
-      <c r="H650" t="n">
-        <v>1</v>
-      </c>
-      <c r="I650" t="n">
-        <v>140.1</v>
-      </c>
-      <c r="J650" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L650" t="n">
-        <v>1</v>
-      </c>
-      <c r="M650" t="inlineStr"/>
-    </row>
-    <row r="651">
-      <c r="A651" s="1" t="n">
-        <v>649</v>
-      </c>
-      <c r="B651" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="C651" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="D651" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="E651" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="F651" t="n">
-        <v>1504</v>
-      </c>
-      <c r="G651" t="n">
-        <v>104045.9040845291</v>
-      </c>
-      <c r="H651" t="n">
-        <v>1</v>
-      </c>
-      <c r="I651" t="n">
-        <v>142.4</v>
-      </c>
-      <c r="J651" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L651" t="n">
-        <v>1</v>
-      </c>
-      <c r="M651" t="inlineStr"/>
-    </row>
-    <row r="652">
-      <c r="A652" s="1" t="n">
-        <v>650</v>
-      </c>
-      <c r="B652" t="n">
-        <v>141.4</v>
-      </c>
-      <c r="C652" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="D652" t="n">
-        <v>141.4</v>
-      </c>
-      <c r="E652" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="F652" t="n">
-        <v>1468.0551</v>
-      </c>
-      <c r="G652" t="n">
-        <v>102577.8489845291</v>
-      </c>
-      <c r="H652" t="n">
-        <v>1</v>
-      </c>
-      <c r="I652" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="J652" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L652" t="n">
-        <v>1</v>
-      </c>
-      <c r="M652" t="inlineStr"/>
-    </row>
-    <row r="653">
-      <c r="A653" s="1" t="n">
-        <v>651</v>
-      </c>
-      <c r="B653" t="n">
-        <v>139</v>
-      </c>
-      <c r="C653" t="n">
-        <v>138</v>
-      </c>
-      <c r="D653" t="n">
-        <v>139</v>
-      </c>
-      <c r="E653" t="n">
-        <v>138</v>
-      </c>
-      <c r="F653" t="n">
-        <v>13047.4783</v>
-      </c>
-      <c r="G653" t="n">
-        <v>89530.3706845291</v>
-      </c>
-      <c r="H653" t="n">
-        <v>1</v>
-      </c>
-      <c r="I653" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="J653" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22184,9 +21978,7 @@
       <c r="I654" t="n">
         <v>138</v>
       </c>
-      <c r="J654" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22225,9 +22017,7 @@
       <c r="I655" t="n">
         <v>139.1</v>
       </c>
-      <c r="J655" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22266,9 +22056,7 @@
       <c r="I656" t="n">
         <v>143.7</v>
       </c>
-      <c r="J656" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22307,9 +22095,7 @@
       <c r="I657" t="n">
         <v>139.4</v>
       </c>
-      <c r="J657" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22348,9 +22134,7 @@
       <c r="I658" t="n">
         <v>139.4</v>
       </c>
-      <c r="J658" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22384,12 +22168,12 @@
         <v>102003.8967845291</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>142.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>145.6</v>
+      </c>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22423,12 +22207,12 @@
         <v>103753.8967845291</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>142.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>143</v>
+      </c>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22467,9 +22251,7 @@
       <c r="I661" t="n">
         <v>143.8</v>
       </c>
-      <c r="J661" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22503,12 +22285,12 @@
         <v>135270.3746845291</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>142.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22545,9 +22327,7 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22584,9 +22364,7 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22623,9 +22401,7 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22662,9 +22438,7 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22701,9 +22475,7 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22740,9 +22512,7 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22779,9 +22549,7 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22818,9 +22586,7 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22857,9 +22623,7 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22896,9 +22660,7 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22935,9 +22697,7 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22974,9 +22734,7 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23013,9 +22771,7 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23052,9 +22808,7 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23091,9 +22845,7 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23130,9 +22882,7 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23169,9 +22919,7 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23208,9 +22956,7 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23247,9 +22993,7 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23286,9 +23030,7 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23325,9 +23067,7 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23364,9 +23104,7 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23403,9 +23141,7 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23442,9 +23178,7 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23481,9 +23215,7 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23520,9 +23252,7 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23559,9 +23289,7 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23598,9 +23326,7 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23637,9 +23363,7 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23676,9 +23400,7 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23715,9 +23437,7 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23754,9 +23474,7 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23793,9 +23511,7 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23832,9 +23548,7 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23871,9 +23585,7 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23907,12 +23619,12 @@
         <v>89810.64119822772</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>142.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>142</v>
+      </c>
+      <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23951,9 +23663,7 @@
       <c r="I699" t="n">
         <v>142.1</v>
       </c>
-      <c r="J699" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23992,9 +23702,7 @@
       <c r="I700" t="n">
         <v>142.1</v>
       </c>
-      <c r="J700" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24033,9 +23741,7 @@
       <c r="I701" t="n">
         <v>143</v>
       </c>
-      <c r="J701" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24069,12 +23775,12 @@
         <v>100707.2364982277</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>142.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>144</v>
+      </c>
+      <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24108,12 +23814,12 @@
         <v>98366.93519822771</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>142.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24152,9 +23858,7 @@
       <c r="I704" t="n">
         <v>143</v>
       </c>
-      <c r="J704" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24193,9 +23897,7 @@
       <c r="I705" t="n">
         <v>141.2</v>
       </c>
-      <c r="J705" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24234,9 +23936,7 @@
       <c r="I706" t="n">
         <v>141.3</v>
       </c>
-      <c r="J706" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24275,9 +23975,7 @@
       <c r="I707" t="n">
         <v>141.5</v>
       </c>
-      <c r="J707" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24316,9 +24014,7 @@
       <c r="I708" t="n">
         <v>143.4</v>
       </c>
-      <c r="J708" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24357,9 +24053,7 @@
       <c r="I709" t="n">
         <v>143.4</v>
       </c>
-      <c r="J709" t="n">
-        <v>142.2</v>
-      </c>
+      <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24393,12 +24087,12 @@
         <v>110468.8562982277</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>142.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
